--- a/TestCases/ToBeAutomated/SpecimenArray.xlsx
+++ b/TestCases/ToBeAutomated/SpecimenArray.xlsx
@@ -216,18 +216,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Test to ensure that user is able to add Tissue speicmen Array successfully using label (Auto allocation)</t>
-  </si>
-  <si>
-    <t>Test to ensure that user is able to add Cell Specimen Array successfully using label  (Auto allocation)</t>
-  </si>
-  <si>
-    <t>Test to ensure that user is able to add Fluid Specimen array successsfully using label  (Auto allocation)</t>
-  </si>
-  <si>
-    <t>Test to ensure that user is able to add Molecular specimen array successfully using label  (Auto allocation)</t>
-  </si>
-  <si>
     <t>Test to ensure that user is able to add Tissue speicmen Array successfully using bode (Manual allocation)</t>
   </si>
   <si>
@@ -247,6 +235,18 @@
   </si>
   <si>
     <t>Test to ensure that activity status can be updated from active to disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test to ensure that user is able to add Tissue speicmen Array successfully using label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test to ensure that user is able to add Cell Specimen Array successfully using label  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test to ensure that user is able to add Fluid Specimen array successsfully using label  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test to ensure that user is able to add Molecular specimen array successfully using label </t>
   </si>
 </sst>
 </file>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CL75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:A75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -679,7 +679,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>51</v>
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -701,7 +701,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -712,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -723,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
@@ -734,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -745,7 +745,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -756,7 +756,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:90" s="6" customFormat="1">
@@ -1031,7 +1031,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="3" customFormat="1">
@@ -1157,7 +1157,7 @@
         <v>50</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="3" customFormat="1">

--- a/TestCases/ToBeAutomated/SpecimenArray.xlsx
+++ b/TestCases/ToBeAutomated/SpecimenArray.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="79">
   <si>
     <t>Add Success</t>
   </si>
@@ -66,18 +66,6 @@
     <t>Test to ensure that appropriate error message is displayed if Created By is blank.</t>
   </si>
   <si>
-    <t>Test to ensure that appropriate error message is displayed if Specimen Type is invalid</t>
-  </si>
-  <si>
-    <t>Test to ensure that appropriate error message is displayed if Specimen Type is blank.</t>
-  </si>
-  <si>
-    <t>Test to ensure that appropriate error message is displayed if Specimen Class is invalid</t>
-  </si>
-  <si>
-    <t>Test to ensure that appropriate error message is displayed ifSpecimen Class is blank.</t>
-  </si>
-  <si>
     <t>Test to ensure that appropriate error message is displayed if Storage Position is invalid</t>
   </si>
   <si>
@@ -216,18 +204,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Test to ensure that user is able to add Tissue speicmen Array successfully using bode (Manual allocation)</t>
-  </si>
-  <si>
-    <t>Test to ensure that user is able to add Cell Specimen Array successfully usin g barcode (Manual allocation)</t>
-  </si>
-  <si>
-    <t>Test to ensure that user is able to add Fluid Specimen array successsfully using barcode (Manual allocation)</t>
-  </si>
-  <si>
-    <t>Test to ensure that user is able to add Molecular specimen array successfully using barcode (Manual allocation)</t>
-  </si>
-  <si>
     <t>Test to ensure that  appropriate error message is displayed if  the  Parent specimen array label is invalid while creating aliquot.</t>
   </si>
   <si>
@@ -237,16 +213,46 @@
     <t>Test to ensure that activity status can be updated from active to disabled</t>
   </si>
   <si>
-    <t xml:space="preserve">Test to ensure that user is able to add Tissue speicmen Array successfully using label </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test to ensure that user is able to add Cell Specimen Array successfully using label  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Test to ensure that user is able to add Fluid Specimen array successsfully using label  </t>
   </si>
   <si>
     <t xml:space="preserve">Test to ensure that user is able to add Molecular specimen array successfully using label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test to ensure that user is able to add Cell speicmen Array successfully using label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test to ensure that user is able to add Tissue Specimen Array successfully using label  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test to ensure that user is able to add Tissue speicmen Array successfully using bode </t>
+  </si>
+  <si>
+    <t>Test to ensure that user is able to add Cell Specimen Array successfully usin g barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test to ensure that user is able to add Fluid Specimen array successsfully using barcode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test to ensure that user is able to add Molecular specimen array successfully using barcode </t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>Test to ensure that appropriate error message is displayed if Storage Container is invalid</t>
+  </si>
+  <si>
+    <t>Test to ensure that appropriate error message is displayed if Storage Container is blank.</t>
+  </si>
+  <si>
+    <t>Test to ensure that appropriate error message is displayed if Specimen Class is a mismatch.</t>
+  </si>
+  <si>
+    <t>custom user</t>
   </si>
 </sst>
 </file>
@@ -302,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -320,6 +326,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CL75"/>
+  <dimension ref="A1:CL72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -642,19 +649,19 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="CL1" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:90" ht="30">
@@ -665,13 +672,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
       <c r="CL2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:90" ht="30">
@@ -679,10 +689,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="9">
+        <v>40609</v>
       </c>
     </row>
     <row r="4" spans="1:90" ht="30">
@@ -690,10 +706,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="9">
+        <v>40609</v>
       </c>
     </row>
     <row r="5" spans="1:90" ht="30">
@@ -701,10 +723,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="9">
+        <v>40609</v>
       </c>
     </row>
     <row r="6" spans="1:90" ht="30">
@@ -712,10 +740,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="9">
+        <v>40609</v>
       </c>
     </row>
     <row r="7" spans="1:90" ht="30">
@@ -723,10 +757,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="9">
+        <v>40609</v>
       </c>
     </row>
     <row r="8" spans="1:90" ht="30">
@@ -734,10 +774,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="9">
+        <v>40609</v>
       </c>
     </row>
     <row r="9" spans="1:90" ht="30">
@@ -745,10 +791,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="9">
+        <v>40609</v>
       </c>
     </row>
     <row r="10" spans="1:90" ht="30">
@@ -756,12 +808,12 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:90" s="6" customFormat="1">
       <c r="C11" s="7"/>
-      <c r="H11"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:90" ht="30">
       <c r="A12">
@@ -771,10 +823,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="9">
+        <v>40609</v>
       </c>
     </row>
     <row r="13" spans="1:90" ht="30">
@@ -782,10 +840,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="9">
+        <v>40609</v>
       </c>
     </row>
     <row r="14" spans="1:90" ht="30">
@@ -793,7 +857,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="9">
+        <v>40609</v>
       </c>
     </row>
     <row r="15" spans="1:90" ht="30">
@@ -801,10 +874,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="9">
+        <v>40609</v>
       </c>
     </row>
     <row r="16" spans="1:90" ht="30">
@@ -812,288 +891,519 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="30">
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="30">
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="30">
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="30">
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30">
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30">
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30">
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="30">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="45">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="30">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="45">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="9">
+        <v>40609</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="45">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="30">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="30">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="30">
-      <c r="A42">
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30">
+      <c r="A43">
         <v>40</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="45">
-      <c r="A43">
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="3" customFormat="1">
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" ht="30">
+    </row>
+    <row r="44" spans="1:8" ht="30">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30">
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1101,80 +1411,71 @@
         <v>46</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="3" customFormat="1">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" ht="30">
+      <c r="A52">
         <v>48</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="B52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
         <v>41</v>
-      </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52">
-        <v>49</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30">
       <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30">
+      <c r="A54">
         <v>50</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="3" customFormat="1">
-      <c r="C54" s="4"/>
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="30">
       <c r="A55">
         <v>51</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
         <v>43</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30">
@@ -1182,10 +1483,7 @@
         <v>52</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30">
@@ -1193,10 +1491,7 @@
         <v>53</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30">
@@ -1204,10 +1499,7 @@
         <v>54</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30">
@@ -1215,7 +1507,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30">
@@ -1223,7 +1515,7 @@
         <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30">
@@ -1231,7 +1523,7 @@
         <v>57</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30">
@@ -1239,7 +1531,7 @@
         <v>58</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30">
@@ -1247,7 +1539,7 @@
         <v>59</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30">
@@ -1255,7 +1547,7 @@
         <v>60</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="30">
@@ -1263,7 +1555,7 @@
         <v>61</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="30">
@@ -1271,7 +1563,7 @@
         <v>62</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="30">
@@ -1279,7 +1571,7 @@
         <v>63</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="30">
@@ -1287,7 +1579,7 @@
         <v>64</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="30">
@@ -1295,7 +1587,7 @@
         <v>65</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30">
@@ -1303,7 +1595,7 @@
         <v>66</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30">
@@ -1311,7 +1603,7 @@
         <v>67</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30">
@@ -1319,31 +1611,7 @@
         <v>68</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="30">
-      <c r="A73">
-        <v>69</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="30">
-      <c r="A74">
-        <v>70</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="30">
-      <c r="A75">
-        <v>71</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1381,12 +1649,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases/ToBeAutomated/SpecimenArray.xlsx
+++ b/TestCases/ToBeAutomated/SpecimenArray.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="82">
   <si>
     <t>Add Success</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>custom user</t>
+  </si>
+  <si>
+    <t>Edit baseed on ID</t>
+  </si>
+  <si>
+    <t>No such field exist</t>
+  </si>
+  <si>
+    <t>technician</t>
   </si>
 </sst>
 </file>
@@ -623,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CL72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1319,7 +1328,13 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="9">
+        <v>40610</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30">
@@ -1333,7 +1348,13 @@
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="9">
+        <v>40610</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30">
@@ -1349,6 +1370,12 @@
       <c r="E44" t="s">
         <v>40</v>
       </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="9">
+        <v>40610</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="30">
       <c r="A45">
@@ -1358,10 +1385,16 @@
         <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
         <v>40</v>
+      </c>
+      <c r="G45" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="9">
+        <v>40610</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1377,6 +1410,12 @@
       <c r="E46" t="s">
         <v>40</v>
       </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="9">
+        <v>40610</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
@@ -1389,8 +1428,12 @@
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
@@ -1403,10 +1446,16 @@
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="G48" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="9">
+        <v>40610</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1417,21 +1466,30 @@
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30">
+        <v>40</v>
+      </c>
+      <c r="G49" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" s="9">
+        <v>40610</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30">
       <c r="A50">
         <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" s="3" customFormat="1">
+      <c r="H50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1">
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="1:5" ht="30">
+    <row r="52" spans="1:8" ht="30">
       <c r="A52">
         <v>48</v>
       </c>
@@ -1445,7 +1503,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30">
+    <row r="53" spans="1:8" ht="30">
       <c r="A53">
         <v>49</v>
       </c>
@@ -1456,7 +1514,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30">
+    <row r="54" spans="1:8" ht="30">
       <c r="A54">
         <v>50</v>
       </c>
@@ -1467,7 +1525,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="30">
+    <row r="55" spans="1:8" ht="30">
       <c r="A55">
         <v>51</v>
       </c>
@@ -1478,7 +1536,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30">
+    <row r="56" spans="1:8" ht="30">
       <c r="A56">
         <v>52</v>
       </c>
@@ -1486,7 +1544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="30">
+    <row r="57" spans="1:8" ht="30">
       <c r="A57">
         <v>53</v>
       </c>
@@ -1494,7 +1552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30">
+    <row r="58" spans="1:8" ht="30">
       <c r="A58">
         <v>54</v>
       </c>
@@ -1502,7 +1560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="30">
+    <row r="59" spans="1:8" ht="30">
       <c r="A59">
         <v>55</v>
       </c>
@@ -1510,7 +1568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30">
+    <row r="60" spans="1:8" ht="30">
       <c r="A60">
         <v>56</v>
       </c>
@@ -1518,7 +1576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="30">
+    <row r="61" spans="1:8" ht="30">
       <c r="A61">
         <v>57</v>
       </c>
@@ -1526,7 +1584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30">
+    <row r="62" spans="1:8" ht="30">
       <c r="A62">
         <v>58</v>
       </c>
@@ -1534,7 +1592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30">
+    <row r="63" spans="1:8" ht="30">
       <c r="A63">
         <v>59</v>
       </c>
@@ -1542,7 +1600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30">
+    <row r="64" spans="1:8" ht="30">
       <c r="A64">
         <v>60</v>
       </c>
